--- a/testChange.xlsx
+++ b/testChange.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -404,7 +405,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>C:\Users\santi\OneDrive\Documents\web projects\react\portal semillero\semillero_backend\tmp\storage\asdsds.xlsx</v>
+        <v>C:\Users\santi\OneDrive\Documents\web projects\react\portal semillero\semillero_backend\tmp\storage\gxgxcvx.xlsx</v>
       </c>
     </row>
   </sheetData>
